--- a/work/V1.2新增字段.xlsx
+++ b/work/V1.2新增字段.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A31FA3-CF34-43E5-A58E-BD255323B1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC0AE2-2535-4B12-9C53-3AD05195513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="422">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,14 +413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maintain_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>structure_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>桥跨结构形式(上部结构衍架梁桥)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1716,14 +1708,6 @@
   </si>
   <si>
     <t>备注(v1.2新增字段)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养护类型(v1.2新增字段)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构类型(v1.2新增字段)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2071,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E225"/>
+  <dimension ref="B1:E223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2083,7 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2110,7 +2094,7 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2121,10 +2105,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C4" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
@@ -2132,10 +2116,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
@@ -2143,16 +2127,16 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -2171,7 +2155,7 @@
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
@@ -2182,7 +2166,7 @@
         <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
@@ -2190,10 +2174,10 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
@@ -2201,10 +2185,10 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
@@ -2215,7 +2199,7 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D13" t="s">
         <v>82</v>
@@ -2226,7 +2210,7 @@
         <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
@@ -2237,7 +2221,7 @@
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
@@ -2248,7 +2232,7 @@
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D16" t="s">
         <v>82</v>
@@ -2259,7 +2243,7 @@
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
@@ -2270,7 +2254,7 @@
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
         <v>82</v>
@@ -2281,7 +2265,7 @@
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
@@ -2292,7 +2276,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D20" t="s">
         <v>82</v>
@@ -2300,10 +2284,10 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
@@ -2314,7 +2298,7 @@
         <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D22" t="s">
         <v>82</v>
@@ -2325,7 +2309,7 @@
         <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
@@ -2333,10 +2317,10 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D24" t="s">
         <v>82</v>
@@ -2344,10 +2328,10 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D25" t="s">
         <v>82</v>
@@ -2358,7 +2342,7 @@
         <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D26" t="s">
         <v>82</v>
@@ -2369,54 +2353,54 @@
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>393</v>
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -2424,21 +2408,24 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -2446,24 +2433,21 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -2471,10 +2455,10 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -2482,60 +2466,60 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>392</v>
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>391</v>
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>25</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -2543,10 +2527,10 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -2554,10 +2538,10 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -2565,46 +2549,46 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
+      <c r="E45" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>390</v>
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
@@ -2612,10 +2596,10 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
         <v>80</v>
@@ -2623,21 +2607,24 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>343</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
+        <v>52</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
       </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>80</v>
@@ -2645,24 +2632,21 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>389</v>
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>
       </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
@@ -2670,10 +2654,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
         <v>80</v>
@@ -2681,10 +2665,10 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -2692,10 +2676,10 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
         <v>80</v>
@@ -2703,10 +2687,10 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
         <v>80</v>
@@ -2714,10 +2698,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
         <v>80</v>
@@ -2725,10 +2709,10 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
         <v>80</v>
@@ -2736,21 +2720,24 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
       </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
         <v>80</v>
@@ -2758,24 +2745,21 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>387</v>
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
       </c>
       <c r="D63" t="s">
         <v>80</v>
       </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
         <v>80</v>
@@ -2783,21 +2767,24 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
       </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
         <v>80</v>
@@ -2805,24 +2792,21 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>388</v>
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>54</v>
       </c>
       <c r="D67" t="s">
         <v>80</v>
       </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s">
         <v>80</v>
@@ -2830,10 +2814,10 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
         <v>80</v>
@@ -2841,21 +2825,24 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" t="s">
-        <v>56</v>
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="D70" t="s">
         <v>80</v>
       </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
         <v>80</v>
@@ -2863,24 +2850,21 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>394</v>
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
       </c>
       <c r="D72" t="s">
         <v>80</v>
       </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
         <v>80</v>
@@ -2888,10 +2872,10 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
         <v>80</v>
@@ -2899,115 +2883,115 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" t="s">
-        <v>74</v>
+        <v>102</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D77" t="s">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>100</v>
+      </c>
+      <c r="D78" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>104</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>100</v>
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
-      </c>
-      <c r="E79" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -3018,7 +3002,7 @@
         <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
@@ -3029,109 +3013,109 @@
         <v>115</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C88" t="s">
         <v>116</v>
       </c>
       <c r="D88" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" t="s">
-        <v>117</v>
+        <v>250</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>252</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
+      </c>
+      <c r="C91" t="s">
+        <v>124</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
-      </c>
-      <c r="E91" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
         <v>125</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
         <v>126</v>
       </c>
       <c r="D93" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C94" t="s">
         <v>127</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -3142,7 +3126,7 @@
         <v>139</v>
       </c>
       <c r="D97" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
@@ -3150,43 +3134,43 @@
         <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D99" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
         <v>131</v>
       </c>
       <c r="D100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D101" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -3194,46 +3178,46 @@
         <v>142</v>
       </c>
       <c r="C102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>143</v>
-      </c>
-      <c r="C103" t="s">
-        <v>145</v>
+        <v>150</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="D103" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" t="s">
         <v>144</v>
       </c>
-      <c r="C104" t="s">
-        <v>134</v>
-      </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>152</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>151</v>
+      <c r="C105" t="s">
+        <v>145</v>
       </c>
       <c r="D105" t="s">
-        <v>98</v>
-      </c>
-      <c r="E105" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
@@ -3244,54 +3228,54 @@
         <v>146</v>
       </c>
       <c r="D106" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C107" t="s">
         <v>147</v>
       </c>
       <c r="D107" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>155</v>
-      </c>
-      <c r="C108" t="s">
-        <v>148</v>
+        <v>159</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D109" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>161</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>160</v>
+      <c r="C110" t="s">
+        <v>155</v>
       </c>
       <c r="D110" t="s">
-        <v>98</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
@@ -3302,7 +3286,7 @@
         <v>156</v>
       </c>
       <c r="D111" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
@@ -3313,43 +3297,43 @@
         <v>157</v>
       </c>
       <c r="D112" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>164</v>
-      </c>
-      <c r="C113" t="s">
-        <v>158</v>
-      </c>
-      <c r="D113" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C114" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="D114" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" t="s">
+        <v>168</v>
+      </c>
+      <c r="D115" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>184</v>
       </c>
       <c r="C116" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>185</v>
       </c>
@@ -3357,43 +3341,43 @@
         <v>170</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>186</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D118" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>187</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D119" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>188</v>
       </c>
       <c r="C120" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D120" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>189</v>
       </c>
@@ -3401,10 +3385,10 @@
         <v>173</v>
       </c>
       <c r="D121" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>190</v>
       </c>
@@ -3412,90 +3396,90 @@
         <v>174</v>
       </c>
       <c r="D122" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
+        <v>195</v>
+      </c>
+      <c r="C123" t="s">
         <v>191</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" t="s">
         <v>175</v>
       </c>
-      <c r="D123" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>192</v>
-      </c>
-      <c r="C124" t="s">
-        <v>176</v>
-      </c>
       <c r="D124" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>197</v>
       </c>
       <c r="C125" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D125" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>198</v>
+        <v>375</v>
       </c>
       <c r="C126" t="s">
+        <v>376</v>
+      </c>
+      <c r="D126" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D126" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>199</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>181</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" t="s">
         <v>178</v>
       </c>
-      <c r="D127" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>377</v>
-      </c>
-      <c r="C128" t="s">
-        <v>378</v>
-      </c>
       <c r="D128" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>379</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" t="s">
         <v>179</v>
       </c>
       <c r="D129" t="s">
-        <v>183</v>
-      </c>
-      <c r="E129" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>380</v>
       </c>
@@ -3503,32 +3487,32 @@
         <v>180</v>
       </c>
       <c r="D130" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>381</v>
-      </c>
-      <c r="C131" t="s">
         <v>181</v>
       </c>
-      <c r="D131" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>382</v>
+        <v>199</v>
       </c>
       <c r="C132" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D132" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133" t="s">
+        <v>203</v>
+      </c>
+      <c r="D133" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>201</v>
       </c>
@@ -3536,43 +3520,43 @@
         <v>204</v>
       </c>
       <c r="D134" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="C135" t="s">
+        <v>220</v>
+      </c>
+      <c r="D135" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>221</v>
+      </c>
+      <c r="C136" t="s">
         <v>205</v>
       </c>
-      <c r="D135" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>203</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>222</v>
+      </c>
+      <c r="C137" t="s">
         <v>206</v>
       </c>
-      <c r="D136" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>236</v>
-      </c>
-      <c r="C137" t="s">
-        <v>222</v>
-      </c>
       <c r="D137" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>223</v>
       </c>
@@ -3580,43 +3564,43 @@
         <v>207</v>
       </c>
       <c r="D138" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
+        <v>225</v>
+      </c>
+      <c r="C139" t="s">
         <v>224</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>226</v>
+      </c>
+      <c r="C140" t="s">
         <v>208</v>
       </c>
-      <c r="D139" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>225</v>
-      </c>
-      <c r="C140" t="s">
-        <v>209</v>
-      </c>
       <c r="D140" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>227</v>
       </c>
       <c r="C141" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D141" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>228</v>
       </c>
@@ -3624,62 +3608,62 @@
         <v>210</v>
       </c>
       <c r="D142" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
+        <v>230</v>
+      </c>
+      <c r="C143" t="s">
         <v>229</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>231</v>
+      </c>
+      <c r="C144" t="s">
         <v>211</v>
       </c>
-      <c r="D143" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>230</v>
-      </c>
-      <c r="C144" t="s">
-        <v>212</v>
-      </c>
       <c r="D144" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
+        <v>233</v>
+      </c>
+      <c r="C145" t="s">
         <v>232</v>
       </c>
-      <c r="C145" t="s">
-        <v>231</v>
-      </c>
       <c r="D145" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D146" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
+        <v>237</v>
+      </c>
+      <c r="C147" t="s">
         <v>235</v>
       </c>
-      <c r="C147" t="s">
-        <v>234</v>
-      </c>
       <c r="D147" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
@@ -3687,10 +3671,10 @@
         <v>238</v>
       </c>
       <c r="C148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D148" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
@@ -3698,10 +3682,10 @@
         <v>239</v>
       </c>
       <c r="C149" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D149" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
@@ -3712,29 +3696,29 @@
         <v>215</v>
       </c>
       <c r="D150" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
+        <v>246</v>
+      </c>
+      <c r="C151" t="s">
         <v>241</v>
       </c>
-      <c r="C151" t="s">
-        <v>216</v>
-      </c>
       <c r="D151" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C152" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D152" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
@@ -3742,32 +3726,32 @@
         <v>248</v>
       </c>
       <c r="C153" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="D153" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C154" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="D154" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D155" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
@@ -3775,98 +3759,98 @@
         <v>245</v>
       </c>
       <c r="C156" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="D156" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>246</v>
-      </c>
-      <c r="C157" t="s">
-        <v>220</v>
-      </c>
-      <c r="D157" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>247</v>
-      </c>
-      <c r="C158" t="s">
-        <v>221</v>
+        <v>271</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="D158" t="s">
-        <v>200</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>272</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D159" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>273</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>305</v>
+      <c r="C160" t="s">
+        <v>255</v>
       </c>
       <c r="D160" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>274</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>304</v>
+      <c r="C161" t="s">
+        <v>256</v>
       </c>
       <c r="D161" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>275</v>
       </c>
-      <c r="C162" t="s">
-        <v>257</v>
+      <c r="C162" s="1" t="s">
+        <v>301</v>
       </c>
       <c r="D162" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>276</v>
       </c>
-      <c r="C163" t="s">
-        <v>258</v>
+      <c r="C163" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D163" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>277</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>303</v>
+      <c r="C164" t="s">
+        <v>257</v>
       </c>
       <c r="D164" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>278</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>302</v>
+      <c r="C165" s="1" t="s">
+        <v>299</v>
       </c>
       <c r="D165" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
@@ -3874,21 +3858,21 @@
         <v>279</v>
       </c>
       <c r="C166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D166" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>280</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>301</v>
+      <c r="C167" t="s">
+        <v>259</v>
       </c>
       <c r="D167" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
@@ -3899,7 +3883,7 @@
         <v>260</v>
       </c>
       <c r="D168" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.2">
@@ -3910,7 +3894,7 @@
         <v>261</v>
       </c>
       <c r="D169" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
@@ -3921,7 +3905,7 @@
         <v>262</v>
       </c>
       <c r="D170" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
@@ -3932,7 +3916,7 @@
         <v>263</v>
       </c>
       <c r="D171" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
@@ -3943,7 +3927,7 @@
         <v>264</v>
       </c>
       <c r="D172" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.2">
@@ -3954,117 +3938,117 @@
         <v>265</v>
       </c>
       <c r="D173" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>287</v>
       </c>
-      <c r="C174" t="s">
-        <v>266</v>
+      <c r="C174" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D174" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>288</v>
       </c>
-      <c r="C175" t="s">
-        <v>267</v>
+      <c r="C175" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="D175" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>289</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>297</v>
+      <c r="C176" t="s">
+        <v>266</v>
       </c>
       <c r="D176" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>290</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>300</v>
+      <c r="C177" t="s">
+        <v>267</v>
       </c>
       <c r="D177" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>291</v>
       </c>
-      <c r="C178" t="s">
-        <v>268</v>
+      <c r="C178" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="D178" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>292</v>
       </c>
-      <c r="C179" t="s">
-        <v>269</v>
+      <c r="C179" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="D179" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>293</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>298</v>
+      <c r="C180" t="s">
+        <v>268</v>
       </c>
       <c r="D180" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>294</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>299</v>
+      <c r="C181" t="s">
+        <v>269</v>
       </c>
       <c r="D181" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>295</v>
-      </c>
-      <c r="C182" t="s">
         <v>270</v>
-      </c>
-      <c r="D182" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="C183" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="D183" t="s">
-        <v>272</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>351</v>
+      </c>
+      <c r="C184" t="s">
+        <v>305</v>
+      </c>
+      <c r="D184" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
@@ -4075,40 +4059,40 @@
         <v>306</v>
       </c>
       <c r="D185" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C186" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="D186" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C187" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D187" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C188" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="D188" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
@@ -4119,73 +4103,73 @@
         <v>309</v>
       </c>
       <c r="D189" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C190" t="s">
         <v>310</v>
       </c>
       <c r="D190" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C191" t="s">
         <v>311</v>
       </c>
       <c r="D191" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C192" t="s">
         <v>312</v>
       </c>
       <c r="D192" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="C193" t="s">
         <v>313</v>
       </c>
       <c r="D193" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="C194" t="s">
         <v>314</v>
       </c>
       <c r="D194" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="C195" t="s">
         <v>315</v>
       </c>
       <c r="D195" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
@@ -4196,40 +4180,40 @@
         <v>316</v>
       </c>
       <c r="D196" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="C197" t="s">
         <v>317</v>
       </c>
       <c r="D197" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
-        <v>292</v>
-      </c>
-      <c r="C198" t="s">
-        <v>318</v>
-      </c>
-      <c r="D198" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="C199" t="s">
+        <v>354</v>
+      </c>
+      <c r="D199" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>356</v>
+      </c>
+      <c r="C200" t="s">
         <v>319</v>
       </c>
-      <c r="D199" t="s">
-        <v>342</v>
+      <c r="D200" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
@@ -4237,10 +4221,10 @@
         <v>357</v>
       </c>
       <c r="C201" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="D201" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
@@ -4251,7 +4235,7 @@
         <v>321</v>
       </c>
       <c r="D202" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
@@ -4262,29 +4246,29 @@
         <v>322</v>
       </c>
       <c r="D203" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
+        <v>361</v>
+      </c>
+      <c r="C204" t="s">
         <v>360</v>
       </c>
-      <c r="C204" t="s">
-        <v>323</v>
-      </c>
       <c r="D204" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C205" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D205" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
@@ -4292,10 +4276,10 @@
         <v>363</v>
       </c>
       <c r="C206" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="D206" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
@@ -4306,7 +4290,7 @@
         <v>325</v>
       </c>
       <c r="D207" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
@@ -4317,7 +4301,7 @@
         <v>326</v>
       </c>
       <c r="D208" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
@@ -4328,7 +4312,7 @@
         <v>327</v>
       </c>
       <c r="D209" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
@@ -4339,7 +4323,7 @@
         <v>328</v>
       </c>
       <c r="D210" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
@@ -4350,7 +4334,7 @@
         <v>329</v>
       </c>
       <c r="D211" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
@@ -4361,7 +4345,7 @@
         <v>330</v>
       </c>
       <c r="D212" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
@@ -4372,7 +4356,7 @@
         <v>331</v>
       </c>
       <c r="D213" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
@@ -4383,7 +4367,7 @@
         <v>332</v>
       </c>
       <c r="D214" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
@@ -4394,7 +4378,7 @@
         <v>333</v>
       </c>
       <c r="D215" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
@@ -4405,7 +4389,7 @@
         <v>334</v>
       </c>
       <c r="D216" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
@@ -4416,51 +4400,51 @@
         <v>335</v>
       </c>
       <c r="D217" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>375</v>
       </c>
-      <c r="C218" t="s">
-        <v>336</v>
+      <c r="C218" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="D218" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C219" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D219" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>377</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
+      </c>
+      <c r="C220" t="s">
+        <v>337</v>
       </c>
       <c r="D220" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C221" t="s">
         <v>338</v>
       </c>
       <c r="D221" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
@@ -4471,40 +4455,18 @@
         <v>339</v>
       </c>
       <c r="D222" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>383</v>
-      </c>
-      <c r="C223" t="s">
-        <v>340</v>
+        <v>382</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="D223" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
-        <v>382</v>
-      </c>
-      <c r="C224" t="s">
-        <v>341</v>
-      </c>
-      <c r="D224" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B225" t="s">
-        <v>384</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D225" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/work/V1.2新增字段.xlsx
+++ b/work/V1.2新增字段.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC0AE2-2535-4B12-9C53-3AD05195513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4564ECE8-C40E-4F35-A704-5B422E649258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1563,10 +1563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支座材料(支座)(水泥混凝土，其他)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>截面形状(支座)(实心矩形,钢结构,挖空矩形)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1703,10 +1699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挡墙类型(v1.2新增字段)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注(v1.2新增字段)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1716,6 +1708,14 @@
   </si>
   <si>
     <t>lead_bge_vertical_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡墙类型(v1.2新增字段)(混凝土护岸,植被护岸)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料(支座)(水泥混凝土，其他)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1739,7 +1739,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1758,6 +1758,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1771,10 +1777,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2055,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E223"/>
+  <dimension ref="B1:F223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2067,10 +2074,10 @@
     <col min="3" max="3" width="71.75" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="58.25" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2081,9 +2088,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2091,10 +2098,11 @@
       <c r="D2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2102,32 +2110,35 @@
       <c r="D3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C6" t="s">
         <v>166</v>
@@ -2138,8 +2149,9 @@
       <c r="E6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>88</v>
       </c>
@@ -2149,222 +2161,242 @@
       <c r="D7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" t="s">
         <v>403</v>
-      </c>
-      <c r="C11" t="s">
-        <v>404</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D18" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>93</v>
       </c>
-      <c r="C26" t="s">
-        <v>418</v>
+      <c r="C26" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="D26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -2373,7 +2405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>165</v>
       </c>
@@ -2384,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>10</v>
       </c>
@@ -2395,7 +2427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>341</v>
       </c>
@@ -2469,7 +2501,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -2483,7 +2515,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -2552,7 +2584,7 @@
         <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -2595,7 +2627,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C50" t="s">
@@ -2610,7 +2642,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
@@ -2664,7 +2696,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C56" t="s">
@@ -2708,7 +2740,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C60" t="s">
@@ -2723,7 +2755,7 @@
         <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
@@ -2755,7 +2787,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C64" t="s">
@@ -2770,7 +2802,7 @@
         <v>36</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D65" t="s">
         <v>80</v>
@@ -2813,7 +2845,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C69" t="s">
@@ -2828,7 +2860,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D70" t="s">
         <v>80</v>
@@ -4195,7 +4227,7 @@
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
+      <c r="B199" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C199" t="s">
@@ -4250,7 +4282,7 @@
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>361</v>
       </c>
       <c r="C204" t="s">
@@ -4305,7 +4337,7 @@
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B209" t="s">
+      <c r="B209" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C209" t="s">
@@ -4404,11 +4436,11 @@
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B218" t="s">
+      <c r="B218" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="D218" t="s">
         <v>318</v>
@@ -4463,7 +4495,7 @@
         <v>382</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D223" t="s">
         <v>318</v>

--- a/work/V1.2新增字段.xlsx
+++ b/work/V1.2新增字段.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4564ECE8-C40E-4F35-A704-5B422E649258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77FF2D-7269-46BE-9334-26809742774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="428">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>桥跨结构形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字段中文注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>material_main_mnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>node_form_mnd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,14 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fulcrum_girder_height_slc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cross_girder_height_slc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number_slc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1111,10 +1095,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bge_surf_facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pvment_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1375,10 +1355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型(支座)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>厚度(支座)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1539,30 +1515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type_support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thickness_support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number_support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tonnage_support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count_support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section_shape_support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>截面形状(支座)(实心矩形,钢结构,挖空矩形)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1716,6 +1668,78 @@
   </si>
   <si>
     <t>材料(支座)(水泥混凝土，其他)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥跨结构形式(v1.2新增字段)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beginfo_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥梁线路Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kz_girder_height_slc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zd_girder_height_slc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_mnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_substructure_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_spt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness_spt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_spt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tonnage_spt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>material_spt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_surface_device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count_spt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section_shape_spt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型(支座)support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2062,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F223"/>
+  <dimension ref="B1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="I179" sqref="I179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2082,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2090,313 +2114,313 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C5" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C21" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -2404,46 +2428,50 @@
       <c r="E29" t="s">
         <v>6</v>
       </c>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>410</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -2451,57 +2479,62 @@
       <c r="E33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -2509,13 +2542,14 @@
       <c r="E38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -2523,68 +2557,74 @@
       <c r="E39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -2592,1914 +2632,2174 @@
       <c r="E45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>165</v>
+        <v>411</v>
       </c>
       <c r="C47" t="s">
+        <v>412</v>
+      </c>
+      <c r="D47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>335</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>413</v>
+      </c>
+      <c r="C54" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D66" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>411</v>
+      </c>
+      <c r="C78" t="s">
+        <v>412</v>
+      </c>
+      <c r="D78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" t="s">
+        <v>92</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>95</v>
       </c>
-      <c r="D47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>341</v>
-      </c>
-      <c r="C49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D61" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D65" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" t="s">
-        <v>71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>78</v>
-      </c>
-      <c r="C74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" t="s">
-        <v>74</v>
-      </c>
-      <c r="D75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+      <c r="C80" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D77" t="s">
-        <v>96</v>
-      </c>
-      <c r="E77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="D83" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
         <v>99</v>
       </c>
-      <c r="C78" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" t="s">
-        <v>31</v>
-      </c>
-      <c r="D80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>104</v>
-      </c>
-      <c r="C81" t="s">
-        <v>106</v>
-      </c>
-      <c r="D81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" t="s">
-        <v>112</v>
-      </c>
       <c r="D84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>120</v>
+        <v>92</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C85" t="s">
         <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C86" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" t="s">
+        <v>109</v>
+      </c>
+      <c r="D87" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+      <c r="C88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>114</v>
       </c>
-      <c r="D86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" t="s">
-        <v>115</v>
-      </c>
-      <c r="D87" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" t="s">
-        <v>116</v>
-      </c>
-      <c r="D88" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>250</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D89" t="s">
-        <v>96</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="C90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>253</v>
-      </c>
-      <c r="C90" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>249</v>
       </c>
       <c r="C92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C93" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" t="s">
+        <v>92</v>
+      </c>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" t="s">
+        <v>92</v>
+      </c>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" t="s">
+        <v>124</v>
+      </c>
+      <c r="D98" t="s">
+        <v>92</v>
+      </c>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" t="s">
         <v>125</v>
       </c>
-      <c r="D92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>251</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D100" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" t="s">
         <v>126</v>
       </c>
-      <c r="D93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D101" t="s">
+        <v>92</v>
+      </c>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" t="s">
         <v>127</v>
       </c>
-      <c r="D94" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D102" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>137</v>
       </c>
-      <c r="D95" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="C103" t="s">
+        <v>139</v>
+      </c>
+      <c r="D103" t="s">
+        <v>92</v>
+      </c>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" t="s">
         <v>128</v>
       </c>
-      <c r="D96" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>135</v>
-      </c>
-      <c r="C97" t="s">
-        <v>139</v>
-      </c>
-      <c r="D97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>136</v>
-      </c>
-      <c r="C98" t="s">
-        <v>129</v>
-      </c>
-      <c r="D98" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" t="s">
-        <v>130</v>
-      </c>
-      <c r="D99" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+      <c r="D104" t="s">
+        <v>92</v>
+      </c>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D105" t="s">
+        <v>92</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>147</v>
+      </c>
+      <c r="C106" t="s">
         <v>140</v>
       </c>
-      <c r="C100" t="s">
-        <v>131</v>
-      </c>
-      <c r="D100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>141</v>
-      </c>
-      <c r="C101" t="s">
-        <v>143</v>
-      </c>
-      <c r="D101" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>142</v>
-      </c>
-      <c r="C102" t="s">
-        <v>132</v>
-      </c>
-      <c r="D102" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>150</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D103" t="s">
-        <v>96</v>
-      </c>
-      <c r="E103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" t="s">
-        <v>144</v>
-      </c>
-      <c r="D104" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>152</v>
-      </c>
-      <c r="C105" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>153</v>
-      </c>
-      <c r="C106" t="s">
-        <v>146</v>
-      </c>
       <c r="D106" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>148</v>
       </c>
       <c r="C107" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" t="s">
+        <v>142</v>
+      </c>
+      <c r="D108" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" t="s">
+        <v>143</v>
+      </c>
+      <c r="D109" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D110" t="s">
+        <v>92</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" t="s">
+        <v>150</v>
+      </c>
+      <c r="D111" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C112" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" t="s">
+        <v>92</v>
+      </c>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C113" t="s">
+        <v>152</v>
+      </c>
+      <c r="D113" t="s">
+        <v>92</v>
+      </c>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>159</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D108" t="s">
-        <v>96</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="C114" t="s">
+        <v>153</v>
+      </c>
+      <c r="D114" t="s">
+        <v>92</v>
+      </c>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" t="s">
+        <v>416</v>
+      </c>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" t="s">
+        <v>177</v>
+      </c>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>180</v>
+      </c>
+      <c r="C118" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" t="s">
+        <v>177</v>
+      </c>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>181</v>
+      </c>
+      <c r="C119" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" t="s">
+        <v>177</v>
+      </c>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C120" t="s">
+        <v>188</v>
+      </c>
+      <c r="D120" t="s">
+        <v>177</v>
+      </c>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>183</v>
+      </c>
+      <c r="C121" t="s">
+        <v>167</v>
+      </c>
+      <c r="D121" t="s">
+        <v>177</v>
+      </c>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>184</v>
+      </c>
+      <c r="C122" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" t="s">
+        <v>177</v>
+      </c>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>185</v>
+      </c>
+      <c r="C123" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" t="s">
+        <v>177</v>
+      </c>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>186</v>
+      </c>
+      <c r="C124" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" t="s">
+        <v>177</v>
+      </c>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C125" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" t="s">
+        <v>177</v>
+      </c>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" t="s">
+        <v>171</v>
+      </c>
+      <c r="D126" t="s">
+        <v>177</v>
+      </c>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>193</v>
+      </c>
+      <c r="C127" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" t="s">
+        <v>177</v>
+      </c>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>421</v>
+      </c>
+      <c r="C128" t="s">
+        <v>370</v>
+      </c>
+      <c r="D128" t="s">
+        <v>177</v>
+      </c>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>417</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D129" t="s">
+        <v>177</v>
+      </c>
+      <c r="E129" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>160</v>
-      </c>
-      <c r="C109" t="s">
-        <v>154</v>
-      </c>
-      <c r="D109" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>161</v>
-      </c>
-      <c r="C110" t="s">
-        <v>155</v>
-      </c>
-      <c r="D110" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>162</v>
-      </c>
-      <c r="C111" t="s">
-        <v>156</v>
-      </c>
-      <c r="D111" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>163</v>
-      </c>
-      <c r="C112" t="s">
-        <v>157</v>
-      </c>
-      <c r="D112" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>182</v>
-      </c>
-      <c r="C114" t="s">
-        <v>193</v>
-      </c>
-      <c r="D114" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115" t="s">
-        <v>168</v>
-      </c>
-      <c r="D115" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>184</v>
-      </c>
-      <c r="C116" t="s">
-        <v>169</v>
-      </c>
-      <c r="D116" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>185</v>
-      </c>
-      <c r="C117" t="s">
-        <v>170</v>
-      </c>
-      <c r="D117" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>186</v>
-      </c>
-      <c r="C118" t="s">
-        <v>192</v>
-      </c>
-      <c r="D118" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>187</v>
-      </c>
-      <c r="C119" t="s">
-        <v>171</v>
-      </c>
-      <c r="D119" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>188</v>
-      </c>
-      <c r="C120" t="s">
-        <v>172</v>
-      </c>
-      <c r="D120" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>189</v>
-      </c>
-      <c r="C121" t="s">
-        <v>173</v>
-      </c>
-      <c r="D121" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>190</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>418</v>
+      </c>
+      <c r="C130" t="s">
         <v>174</v>
       </c>
-      <c r="D122" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
+      <c r="D130" t="s">
+        <v>177</v>
+      </c>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>419</v>
+      </c>
+      <c r="C131" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131" t="s">
+        <v>177</v>
+      </c>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>420</v>
+      </c>
+      <c r="C132" t="s">
+        <v>176</v>
+      </c>
+      <c r="D132" t="s">
+        <v>177</v>
+      </c>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>195</v>
       </c>
-      <c r="C123" t="s">
-        <v>191</v>
-      </c>
-      <c r="D123" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
+      <c r="C134" t="s">
+        <v>198</v>
+      </c>
+      <c r="D134" t="s">
+        <v>194</v>
+      </c>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
         <v>196</v>
       </c>
-      <c r="C124" t="s">
-        <v>175</v>
-      </c>
-      <c r="D124" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
+      <c r="C135" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135" t="s">
+        <v>194</v>
+      </c>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>197</v>
       </c>
-      <c r="C125" t="s">
-        <v>176</v>
-      </c>
-      <c r="D125" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>375</v>
-      </c>
-      <c r="C126" t="s">
-        <v>376</v>
-      </c>
-      <c r="D126" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>377</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D127" t="s">
-        <v>181</v>
-      </c>
-      <c r="E127" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>378</v>
-      </c>
-      <c r="C128" t="s">
-        <v>178</v>
-      </c>
-      <c r="D128" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
-        <v>379</v>
-      </c>
-      <c r="C129" t="s">
-        <v>179</v>
-      </c>
-      <c r="D129" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>380</v>
-      </c>
-      <c r="C130" t="s">
-        <v>180</v>
-      </c>
-      <c r="D130" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>199</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="C136" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" t="s">
+        <v>194</v>
+      </c>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>230</v>
+      </c>
+      <c r="C137" t="s">
+        <v>216</v>
+      </c>
+      <c r="D137" t="s">
+        <v>194</v>
+      </c>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" t="s">
+        <v>201</v>
+      </c>
+      <c r="D138" t="s">
+        <v>194</v>
+      </c>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>218</v>
+      </c>
+      <c r="C139" t="s">
         <v>202</v>
       </c>
-      <c r="D132" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>200</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="D139" t="s">
+        <v>194</v>
+      </c>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" t="s">
         <v>203</v>
       </c>
-      <c r="D133" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>201</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D140" t="s">
+        <v>194</v>
+      </c>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>221</v>
+      </c>
+      <c r="C141" t="s">
+        <v>220</v>
+      </c>
+      <c r="D141" t="s">
+        <v>194</v>
+      </c>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C142" t="s">
         <v>204</v>
       </c>
-      <c r="D134" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
+      <c r="D142" t="s">
+        <v>194</v>
+      </c>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>223</v>
+      </c>
+      <c r="C143" t="s">
+        <v>205</v>
+      </c>
+      <c r="D143" t="s">
+        <v>194</v>
+      </c>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>224</v>
+      </c>
+      <c r="C144" t="s">
+        <v>206</v>
+      </c>
+      <c r="D144" t="s">
+        <v>194</v>
+      </c>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>226</v>
+      </c>
+      <c r="C145" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" t="s">
+        <v>194</v>
+      </c>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C146" t="s">
+        <v>207</v>
+      </c>
+      <c r="D146" t="s">
+        <v>194</v>
+      </c>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>229</v>
+      </c>
+      <c r="C147" t="s">
+        <v>228</v>
+      </c>
+      <c r="D147" t="s">
+        <v>194</v>
+      </c>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C148" t="s">
+        <v>208</v>
+      </c>
+      <c r="D148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>233</v>
+      </c>
+      <c r="C149" t="s">
+        <v>231</v>
+      </c>
+      <c r="D149" t="s">
+        <v>194</v>
+      </c>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C135" t="s">
-        <v>220</v>
-      </c>
-      <c r="D135" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>221</v>
-      </c>
-      <c r="C136" t="s">
-        <v>205</v>
-      </c>
-      <c r="D136" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>222</v>
-      </c>
-      <c r="C137" t="s">
-        <v>206</v>
-      </c>
-      <c r="D137" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>223</v>
-      </c>
-      <c r="C138" t="s">
-        <v>207</v>
-      </c>
-      <c r="D138" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>225</v>
-      </c>
-      <c r="C139" t="s">
-        <v>224</v>
-      </c>
-      <c r="D139" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>226</v>
-      </c>
-      <c r="C140" t="s">
-        <v>208</v>
-      </c>
-      <c r="D140" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>227</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="C150" t="s">
         <v>209</v>
       </c>
-      <c r="D141" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>228</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="D150" t="s">
+        <v>194</v>
+      </c>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" t="s">
         <v>210</v>
       </c>
-      <c r="D142" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>230</v>
-      </c>
-      <c r="C143" t="s">
-        <v>229</v>
-      </c>
-      <c r="D143" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>231</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="D151" t="s">
+        <v>194</v>
+      </c>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>236</v>
+      </c>
+      <c r="C152" t="s">
         <v>211</v>
       </c>
-      <c r="D144" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>233</v>
-      </c>
-      <c r="C145" t="s">
-        <v>232</v>
-      </c>
-      <c r="D145" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>236</v>
-      </c>
-      <c r="C146" t="s">
-        <v>212</v>
-      </c>
-      <c r="D146" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
+      <c r="D152" t="s">
+        <v>194</v>
+      </c>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>242</v>
+      </c>
+      <c r="C153" t="s">
         <v>237</v>
       </c>
-      <c r="C147" t="s">
-        <v>235</v>
-      </c>
-      <c r="D147" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>238</v>
-      </c>
-      <c r="C148" t="s">
-        <v>213</v>
-      </c>
-      <c r="D148" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>239</v>
-      </c>
-      <c r="C149" t="s">
-        <v>214</v>
-      </c>
-      <c r="D149" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>240</v>
-      </c>
-      <c r="C150" t="s">
-        <v>215</v>
-      </c>
-      <c r="D150" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>246</v>
-      </c>
-      <c r="C151" t="s">
-        <v>241</v>
-      </c>
-      <c r="D151" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>247</v>
-      </c>
-      <c r="C152" t="s">
-        <v>216</v>
-      </c>
-      <c r="D152" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>248</v>
-      </c>
-      <c r="C153" t="s">
-        <v>217</v>
-      </c>
       <c r="D153" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>243</v>
       </c>
       <c r="C154" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D154" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>244</v>
       </c>
       <c r="C155" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D155" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C156" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D156" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>240</v>
+      </c>
+      <c r="C157" t="s">
+        <v>214</v>
+      </c>
+      <c r="D157" t="s">
+        <v>194</v>
+      </c>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
+        <v>241</v>
+      </c>
+      <c r="C158" t="s">
+        <v>215</v>
+      </c>
+      <c r="D158" t="s">
+        <v>194</v>
+      </c>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>411</v>
+      </c>
+      <c r="C161" t="s">
+        <v>412</v>
+      </c>
+      <c r="D161" t="s">
+        <v>422</v>
+      </c>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>266</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D162" t="s">
+        <v>422</v>
+      </c>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>267</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D163" t="s">
+        <v>422</v>
+      </c>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>268</v>
+      </c>
+      <c r="C164" t="s">
+        <v>251</v>
+      </c>
+      <c r="D164" t="s">
+        <v>422</v>
+      </c>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>269</v>
+      </c>
+      <c r="C165" t="s">
+        <v>252</v>
+      </c>
+      <c r="D165" t="s">
+        <v>422</v>
+      </c>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D166" t="s">
+        <v>422</v>
+      </c>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
         <v>271</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C167" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D167" t="s">
+        <v>422</v>
+      </c>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>272</v>
+      </c>
+      <c r="C168" t="s">
+        <v>253</v>
+      </c>
+      <c r="D168" t="s">
+        <v>422</v>
+      </c>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>273</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D169" t="s">
+        <v>422</v>
+      </c>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>274</v>
+      </c>
+      <c r="C170" t="s">
+        <v>254</v>
+      </c>
+      <c r="D170" t="s">
+        <v>422</v>
+      </c>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>275</v>
+      </c>
+      <c r="C171" t="s">
+        <v>255</v>
+      </c>
+      <c r="D171" t="s">
+        <v>422</v>
+      </c>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>276</v>
+      </c>
+      <c r="C172" t="s">
+        <v>256</v>
+      </c>
+      <c r="D172" t="s">
+        <v>422</v>
+      </c>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>277</v>
+      </c>
+      <c r="C173" t="s">
+        <v>257</v>
+      </c>
+      <c r="D173" t="s">
+        <v>422</v>
+      </c>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>278</v>
+      </c>
+      <c r="C174" t="s">
+        <v>258</v>
+      </c>
+      <c r="D174" t="s">
+        <v>422</v>
+      </c>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>279</v>
+      </c>
+      <c r="C175" t="s">
+        <v>259</v>
+      </c>
+      <c r="D175" t="s">
+        <v>422</v>
+      </c>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>280</v>
+      </c>
+      <c r="C176" t="s">
+        <v>260</v>
+      </c>
+      <c r="D176" t="s">
+        <v>422</v>
+      </c>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>281</v>
+      </c>
+      <c r="C177" t="s">
+        <v>261</v>
+      </c>
+      <c r="D177" t="s">
+        <v>422</v>
+      </c>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>282</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D178" t="s">
+        <v>422</v>
+      </c>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>283</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D179" t="s">
+        <v>422</v>
+      </c>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>284</v>
+      </c>
+      <c r="C180" t="s">
+        <v>262</v>
+      </c>
+      <c r="D180" t="s">
+        <v>422</v>
+      </c>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>285</v>
+      </c>
+      <c r="C181" t="s">
+        <v>263</v>
+      </c>
+      <c r="D181" t="s">
+        <v>422</v>
+      </c>
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>286</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D182" t="s">
+        <v>422</v>
+      </c>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>287</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D183" t="s">
+        <v>422</v>
+      </c>
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>288</v>
+      </c>
+      <c r="C184" t="s">
+        <v>264</v>
+      </c>
+      <c r="D184" t="s">
+        <v>422</v>
+      </c>
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>289</v>
+      </c>
+      <c r="C185" t="s">
+        <v>265</v>
+      </c>
+      <c r="D185" t="s">
+        <v>422</v>
+      </c>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>411</v>
+      </c>
+      <c r="C188" t="s">
+        <v>412</v>
+      </c>
+      <c r="D188" t="s">
+        <v>334</v>
+      </c>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>344</v>
+      </c>
+      <c r="C189" t="s">
+        <v>299</v>
+      </c>
+      <c r="D189" t="s">
+        <v>334</v>
+      </c>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>345</v>
+      </c>
+      <c r="C190" t="s">
+        <v>300</v>
+      </c>
+      <c r="D190" t="s">
+        <v>334</v>
+      </c>
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>346</v>
+      </c>
+      <c r="C191" t="s">
+        <v>301</v>
+      </c>
+      <c r="D191" t="s">
+        <v>334</v>
+      </c>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>336</v>
+      </c>
+      <c r="C192" t="s">
+        <v>337</v>
+      </c>
+      <c r="D192" t="s">
+        <v>334</v>
+      </c>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>338</v>
+      </c>
+      <c r="C193" t="s">
+        <v>302</v>
+      </c>
+      <c r="D193" t="s">
+        <v>334</v>
+      </c>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>339</v>
+      </c>
+      <c r="C194" t="s">
         <v>303</v>
       </c>
-      <c r="D158" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>272</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D159" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>273</v>
-      </c>
-      <c r="C160" t="s">
-        <v>255</v>
-      </c>
-      <c r="D160" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
-        <v>274</v>
-      </c>
-      <c r="C161" t="s">
-        <v>256</v>
-      </c>
-      <c r="D161" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>275</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D162" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>276</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D163" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>277</v>
-      </c>
-      <c r="C164" t="s">
-        <v>257</v>
-      </c>
-      <c r="D164" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
-        <v>278</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D165" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
-        <v>279</v>
-      </c>
-      <c r="C166" t="s">
-        <v>258</v>
-      </c>
-      <c r="D166" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>280</v>
-      </c>
-      <c r="C167" t="s">
-        <v>259</v>
-      </c>
-      <c r="D167" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>281</v>
-      </c>
-      <c r="C168" t="s">
-        <v>260</v>
-      </c>
-      <c r="D168" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
+      <c r="D194" t="s">
+        <v>334</v>
+      </c>
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>340</v>
+      </c>
+      <c r="C195" t="s">
+        <v>304</v>
+      </c>
+      <c r="D195" t="s">
+        <v>334</v>
+      </c>
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>347</v>
+      </c>
+      <c r="C196" t="s">
+        <v>305</v>
+      </c>
+      <c r="D196" t="s">
+        <v>334</v>
+      </c>
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>341</v>
+      </c>
+      <c r="C197" t="s">
+        <v>306</v>
+      </c>
+      <c r="D197" t="s">
+        <v>334</v>
+      </c>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>342</v>
+      </c>
+      <c r="C198" t="s">
+        <v>307</v>
+      </c>
+      <c r="D198" t="s">
+        <v>334</v>
+      </c>
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
         <v>282</v>
       </c>
-      <c r="C169" t="s">
-        <v>261</v>
-      </c>
-      <c r="D169" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
+      <c r="C199" t="s">
+        <v>308</v>
+      </c>
+      <c r="D199" t="s">
+        <v>334</v>
+      </c>
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
         <v>283</v>
       </c>
-      <c r="C170" t="s">
-        <v>262</v>
-      </c>
-      <c r="D170" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
+      <c r="C200" t="s">
+        <v>309</v>
+      </c>
+      <c r="D200" t="s">
+        <v>334</v>
+      </c>
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>343</v>
+      </c>
+      <c r="C201" t="s">
+        <v>310</v>
+      </c>
+      <c r="D201" t="s">
+        <v>334</v>
+      </c>
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>285</v>
+      </c>
+      <c r="C202" t="s">
+        <v>311</v>
+      </c>
+      <c r="D202" t="s">
+        <v>334</v>
+      </c>
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
         <v>284</v>
       </c>
-      <c r="C171" t="s">
-        <v>263</v>
-      </c>
-      <c r="D171" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B172" t="s">
-        <v>285</v>
-      </c>
-      <c r="C172" t="s">
-        <v>264</v>
-      </c>
-      <c r="D172" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B173" t="s">
-        <v>286</v>
-      </c>
-      <c r="C173" t="s">
-        <v>265</v>
-      </c>
-      <c r="D173" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
-        <v>287</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D174" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
-        <v>288</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D175" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>289</v>
-      </c>
-      <c r="C176" t="s">
-        <v>266</v>
-      </c>
-      <c r="D176" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
-        <v>290</v>
-      </c>
-      <c r="C177" t="s">
-        <v>267</v>
-      </c>
-      <c r="D177" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B178" t="s">
-        <v>291</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D178" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B179" t="s">
-        <v>292</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D179" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
-        <v>293</v>
-      </c>
-      <c r="C180" t="s">
-        <v>268</v>
-      </c>
-      <c r="D180" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B181" t="s">
-        <v>294</v>
-      </c>
-      <c r="C181" t="s">
-        <v>269</v>
-      </c>
-      <c r="D181" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B183" t="s">
+      <c r="C203" t="s">
+        <v>312</v>
+      </c>
+      <c r="D203" t="s">
+        <v>334</v>
+      </c>
+      <c r="F203" s="3"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>426</v>
+      </c>
+      <c r="C205" t="s">
+        <v>427</v>
+      </c>
+      <c r="D205" t="s">
+        <v>313</v>
+      </c>
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+      <c r="C206" t="s">
+        <v>412</v>
+      </c>
+      <c r="D206" t="s">
+        <v>313</v>
+      </c>
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B207" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C207" t="s">
+        <v>348</v>
+      </c>
+      <c r="D207" t="s">
+        <v>313</v>
+      </c>
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
         <v>350</v>
       </c>
-      <c r="C183" t="s">
-        <v>304</v>
-      </c>
-      <c r="D183" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
+      <c r="C208" t="s">
+        <v>314</v>
+      </c>
+      <c r="D208" t="s">
+        <v>313</v>
+      </c>
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
         <v>351</v>
       </c>
-      <c r="C184" t="s">
-        <v>305</v>
-      </c>
-      <c r="D184" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
+      <c r="C209" t="s">
+        <v>315</v>
+      </c>
+      <c r="D209" t="s">
+        <v>313</v>
+      </c>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
         <v>352</v>
       </c>
-      <c r="C185" t="s">
-        <v>306</v>
-      </c>
-      <c r="D185" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
-        <v>342</v>
-      </c>
-      <c r="C186" t="s">
-        <v>343</v>
-      </c>
-      <c r="D186" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B187" t="s">
-        <v>344</v>
-      </c>
-      <c r="C187" t="s">
-        <v>307</v>
-      </c>
-      <c r="D187" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>345</v>
-      </c>
-      <c r="C188" t="s">
-        <v>308</v>
-      </c>
-      <c r="D188" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>346</v>
-      </c>
-      <c r="C189" t="s">
-        <v>309</v>
-      </c>
-      <c r="D189" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B190" t="s">
+      <c r="C210" t="s">
+        <v>316</v>
+      </c>
+      <c r="D210" t="s">
+        <v>313</v>
+      </c>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
         <v>353</v>
       </c>
-      <c r="C190" t="s">
-        <v>310</v>
-      </c>
-      <c r="D190" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
-        <v>347</v>
-      </c>
-      <c r="C191" t="s">
-        <v>311</v>
-      </c>
-      <c r="D191" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
-        <v>348</v>
-      </c>
-      <c r="C192" t="s">
-        <v>312</v>
-      </c>
-      <c r="D192" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B193" t="s">
-        <v>287</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="C211" t="s">
+        <v>317</v>
+      </c>
+      <c r="D211" t="s">
         <v>313</v>
       </c>
-      <c r="D193" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
-        <v>288</v>
-      </c>
-      <c r="C194" t="s">
-        <v>314</v>
-      </c>
-      <c r="D194" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
-        <v>349</v>
-      </c>
-      <c r="C195" t="s">
-        <v>315</v>
-      </c>
-      <c r="D195" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
-        <v>290</v>
-      </c>
-      <c r="C196" t="s">
-        <v>316</v>
-      </c>
-      <c r="D196" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
-        <v>289</v>
-      </c>
-      <c r="C197" t="s">
-        <v>317</v>
-      </c>
-      <c r="D197" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B199" s="1" t="s">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C212" t="s">
         <v>354</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D212" t="s">
+        <v>313</v>
+      </c>
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>356</v>
+      </c>
+      <c r="C213" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>356</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="D213" t="s">
+        <v>313</v>
+      </c>
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>357</v>
+      </c>
+      <c r="C214" t="s">
         <v>319</v>
       </c>
-      <c r="D200" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B201" t="s">
-        <v>357</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="D214" t="s">
+        <v>313</v>
+      </c>
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>358</v>
+      </c>
+      <c r="C215" t="s">
         <v>320</v>
       </c>
-      <c r="D201" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
-        <v>358</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="D215" t="s">
+        <v>313</v>
+      </c>
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>359</v>
+      </c>
+      <c r="C216" t="s">
         <v>321</v>
       </c>
-      <c r="D202" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B203" t="s">
-        <v>359</v>
-      </c>
-      <c r="C203" t="s">
+      <c r="D216" t="s">
+        <v>313</v>
+      </c>
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B217" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C217" t="s">
         <v>322</v>
       </c>
-      <c r="D203" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B204" s="1" t="s">
+      <c r="D217" t="s">
+        <v>313</v>
+      </c>
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
         <v>361</v>
       </c>
-      <c r="C204" t="s">
-        <v>360</v>
-      </c>
-      <c r="D204" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B205" t="s">
+      <c r="C218" t="s">
+        <v>323</v>
+      </c>
+      <c r="D218" t="s">
+        <v>313</v>
+      </c>
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
         <v>362</v>
       </c>
-      <c r="C205" t="s">
-        <v>323</v>
-      </c>
-      <c r="D205" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B206" t="s">
+      <c r="C219" t="s">
+        <v>324</v>
+      </c>
+      <c r="D219" t="s">
+        <v>313</v>
+      </c>
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
         <v>363</v>
       </c>
-      <c r="C206" t="s">
-        <v>324</v>
-      </c>
-      <c r="D206" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B207" t="s">
+      <c r="C220" t="s">
+        <v>325</v>
+      </c>
+      <c r="D220" t="s">
+        <v>313</v>
+      </c>
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
         <v>364</v>
       </c>
-      <c r="C207" t="s">
-        <v>325</v>
-      </c>
-      <c r="D207" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
+      <c r="C221" t="s">
+        <v>326</v>
+      </c>
+      <c r="D221" t="s">
+        <v>313</v>
+      </c>
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
         <v>365</v>
       </c>
-      <c r="C208" t="s">
-        <v>326</v>
-      </c>
-      <c r="D208" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B209" s="1" t="s">
+      <c r="C222" t="s">
+        <v>327</v>
+      </c>
+      <c r="D222" t="s">
+        <v>313</v>
+      </c>
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
         <v>366</v>
       </c>
-      <c r="C209" t="s">
-        <v>327</v>
-      </c>
-      <c r="D209" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
+      <c r="C223" t="s">
+        <v>328</v>
+      </c>
+      <c r="D223" t="s">
+        <v>313</v>
+      </c>
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
         <v>367</v>
       </c>
-      <c r="C210" t="s">
-        <v>328</v>
-      </c>
-      <c r="D210" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B211" t="s">
+      <c r="C224" t="s">
+        <v>329</v>
+      </c>
+      <c r="D224" t="s">
+        <v>313</v>
+      </c>
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
         <v>368</v>
       </c>
-      <c r="C211" t="s">
-        <v>329</v>
-      </c>
-      <c r="D211" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B212" t="s">
+      <c r="C225" t="s">
+        <v>330</v>
+      </c>
+      <c r="D225" t="s">
+        <v>313</v>
+      </c>
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B226" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C212" t="s">
-        <v>330</v>
-      </c>
-      <c r="D212" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B213" t="s">
-        <v>370</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="C226" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D226" t="s">
+        <v>313</v>
+      </c>
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>417</v>
+      </c>
+      <c r="C227" t="s">
+        <v>425</v>
+      </c>
+      <c r="D227" t="s">
+        <v>313</v>
+      </c>
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>418</v>
+      </c>
+      <c r="C228" t="s">
         <v>331</v>
       </c>
-      <c r="D213" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
+      <c r="D228" t="s">
+        <v>313</v>
+      </c>
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>423</v>
+      </c>
+      <c r="C229" t="s">
+        <v>332</v>
+      </c>
+      <c r="D229" t="s">
+        <v>313</v>
+      </c>
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>420</v>
+      </c>
+      <c r="C230" t="s">
+        <v>333</v>
+      </c>
+      <c r="D230" t="s">
+        <v>313</v>
+      </c>
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>424</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C214" t="s">
-        <v>332</v>
-      </c>
-      <c r="D214" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B215" t="s">
-        <v>372</v>
-      </c>
-      <c r="C215" t="s">
-        <v>333</v>
-      </c>
-      <c r="D215" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
-        <v>373</v>
-      </c>
-      <c r="C216" t="s">
-        <v>334</v>
-      </c>
-      <c r="D216" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
-        <v>374</v>
-      </c>
-      <c r="C217" t="s">
-        <v>335</v>
-      </c>
-      <c r="D217" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B218" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D218" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B219" t="s">
-        <v>377</v>
-      </c>
-      <c r="C219" t="s">
-        <v>336</v>
-      </c>
-      <c r="D219" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B220" t="s">
-        <v>378</v>
-      </c>
-      <c r="C220" t="s">
-        <v>337</v>
-      </c>
-      <c r="D220" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B221" t="s">
-        <v>381</v>
-      </c>
-      <c r="C221" t="s">
-        <v>338</v>
-      </c>
-      <c r="D221" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B222" t="s">
-        <v>380</v>
-      </c>
-      <c r="C222" t="s">
-        <v>339</v>
-      </c>
-      <c r="D222" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B223" t="s">
-        <v>382</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D223" t="s">
-        <v>318</v>
-      </c>
+      <c r="D231" t="s">
+        <v>313</v>
+      </c>
+      <c r="F231" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/work/V1.2新增字段.xlsx
+++ b/work/V1.2新增字段.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77FF2D-7269-46BE-9334-26809742774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B82774-9CF8-47F1-94A6-706DBD6385BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,7 +1747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1760,6 +1760,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1801,11 +1808,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2088,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="I179" sqref="I179"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2645,7 +2653,7 @@
       <c r="C47" t="s">
         <v>412</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>76</v>
       </c>
       <c r="F47" s="3"/>
@@ -3017,7 +3025,7 @@
       <c r="C78" t="s">
         <v>412</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F78" s="3"/>
@@ -3986,7 +3994,7 @@
       <c r="C161" t="s">
         <v>412</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="4" t="s">
         <v>422</v>
       </c>
       <c r="F161" s="3"/>
@@ -4292,7 +4300,7 @@
       <c r="C188" t="s">
         <v>412</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="4" t="s">
         <v>334</v>
       </c>
       <c r="F188" s="3"/>
@@ -4484,7 +4492,7 @@
       <c r="C205" t="s">
         <v>427</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="4" t="s">
         <v>313</v>
       </c>
       <c r="F205" s="3"/>

--- a/work/V1.2新增字段.xlsx
+++ b/work/V1.2新增字段.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19880BAA-7779-4C25-B721-E134C890005B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A72166C-35B4-4778-BF13-3CB4466E08C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="3675" windowWidth="26565" windowHeight="14685" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-720" yWindow="915" windowWidth="26565" windowHeight="14685" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增字段" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="470">
   <si>
     <t>字段名</t>
   </si>
@@ -369,9 +369,6 @@
     <t>主梁材料</t>
   </si>
   <si>
-    <t>cross_span_combine</t>
-  </si>
-  <si>
     <t>跨径组合</t>
   </si>
   <si>
@@ -453,9 +450,6 @@
     <t>跨长(上部结构衍架梁桥)</t>
   </si>
   <si>
-    <t xml:space="preserve">你你你你你你你你你你你你你你你你你你你 </t>
-  </si>
-  <si>
     <t>桥跨编号(上部结构衍架梁桥)</t>
   </si>
   <si>
@@ -747,9 +741,6 @@
     <t>瞄固孔长度(上部结构悬臂梁桥--悬臂梁)</t>
   </si>
   <si>
-    <t>mid_span_height_xbl</t>
-  </si>
-  <si>
     <t>跨中梁高(上部结构悬臂梁桥--悬臂梁)</t>
   </si>
   <si>
@@ -1213,9 +1204,6 @@
   </si>
   <si>
     <t>sidewalk_material</t>
-  </si>
-  <si>
-    <t>人行道材料(水泥混凝土,其他)</t>
   </si>
   <si>
     <t>sidewalk_width</t>
@@ -1465,10 +1453,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>增</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>删</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1521,16 +1505,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>桥跨结构形式</t>
-  </si>
-  <si>
-    <t>横隔板材料</t>
-  </si>
-  <si>
     <t>截面形式(截面形式包括实心矩形，挖空矩形，钢结构)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_superstructrue_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bge_ancillary_info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1539,6 +1533,613 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>桥跨结构形式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跨长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>桥跨编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跨径组合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跨中梁高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支点梁高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梁顶面宽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>横隔板材料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厚度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid_span_height_xbl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid_span_height</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cross_span_combine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fulcrum_girder_height</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>section_form</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>length_ctn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_ctn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>height_ctn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>thickness_ctn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>other_explain_ctn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上部结构连续梁桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ctn---&gt;continue(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人行道材料(水泥混凝土,其他)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>主梁材料(</t>
     </r>
     <r>
@@ -1561,10 +2162,80 @@
       </rPr>
       <t>)</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为没有提供字典数据，暂时用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A,B,C,D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>占位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>下拉框</t>
+    <t>beginfo_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bridge_span_form</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>span_length</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>span_serial_number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_girder_material</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1572,7 +2243,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1642,8 +2313,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1674,6 +2357,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1687,16 +2388,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1780,10 +2486,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2083,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K256"/>
+  <dimension ref="B1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2125,7 +2827,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -2155,7 +2857,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>436</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -2220,17 +2922,15 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -2243,22 +2943,20 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -2266,63 +2964,56 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
-        <v>425</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G13" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -2338,17 +3029,15 @@
       <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -2361,17 +3050,15 @@
       <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -2384,17 +3071,15 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -2407,17 +3092,15 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -2430,17 +3113,15 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -2453,17 +3134,15 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -2476,17 +3155,15 @@
       <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -2499,17 +3176,15 @@
       <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -2522,17 +3197,15 @@
       <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -2545,17 +3218,15 @@
       <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -2568,17 +3239,15 @@
       <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -2591,17 +3260,15 @@
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -2614,40 +3281,36 @@
       <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
@@ -2660,42 +3323,42 @@
       <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="14.85" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>437</v>
       </c>
       <c r="E36" t="s">
         <v>51</v>
       </c>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>52</v>
       </c>
@@ -2703,11 +3366,13 @@
         <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>437</v>
       </c>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>54</v>
       </c>
@@ -2718,8 +3383,10 @@
         <v>50</v>
       </c>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="1"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>56</v>
       </c>
@@ -2727,11 +3394,13 @@
         <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>437</v>
       </c>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="1"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>58</v>
       </c>
@@ -2745,61 +3414,71 @@
         <v>51</v>
       </c>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="1"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" t="s">
         <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
       </c>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="1"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
         <v>62</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="1"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
+        <v>454</v>
+      </c>
+      <c r="C43" t="s">
         <v>64</v>
-      </c>
-      <c r="C43" t="s">
-        <v>65</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
       </c>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="1"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
         <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>67</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
       </c>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="1"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
@@ -2808,13 +3487,15 @@
         <v>51</v>
       </c>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="1"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
@@ -2823,73 +3504,85 @@
         <v>51</v>
       </c>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="1"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
         <v>72</v>
-      </c>
-      <c r="C47" t="s">
-        <v>73</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="1"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
         <v>74</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
       </c>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="1"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
         <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
       </c>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="1"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
         <v>78</v>
-      </c>
-      <c r="C50" t="s">
-        <v>79</v>
       </c>
       <c r="D50" t="s">
         <v>50</v>
       </c>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="1"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" t="s">
         <v>80</v>
-      </c>
-      <c r="C51" t="s">
-        <v>81</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
       </c>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="1"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D52" t="s">
         <v>50</v>
@@ -2898,299 +3591,391 @@
         <v>51</v>
       </c>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="1"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>464</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C58" s="8" t="s">
+      <c r="D55" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="D59" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="6" t="s">
+      <c r="D60" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C64" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C63" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B67" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B68" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>52</v>
       </c>
       <c r="C73" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>54</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F74" s="1"/>
-      <c r="K74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>56</v>
       </c>
       <c r="C75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" t="s">
         <v>89</v>
       </c>
-      <c r="D75" t="s">
-        <v>86</v>
-      </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
+      <c r="D76" t="s">
+        <v>85</v>
+      </c>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>90</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D76" t="s">
-        <v>86</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E77" t="s">
         <v>51</v>
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" t="s">
+        <v>93</v>
+      </c>
+      <c r="D78" t="s">
+        <v>85</v>
+      </c>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>94</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>95</v>
       </c>
-      <c r="D78" t="s">
-        <v>86</v>
-      </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+      <c r="D79" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>96</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>97</v>
       </c>
-      <c r="D79" t="s">
-        <v>86</v>
-      </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" t="s">
-        <v>99</v>
-      </c>
       <c r="D80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E87" t="s">
         <v>51</v>
@@ -3199,49 +3984,49 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E91" t="s">
         <v>51</v>
@@ -3250,61 +4035,61 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E96" t="s">
         <v>51</v>
@@ -3313,61 +4098,61 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C99" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D100" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F101" s="1"/>
     </row>
@@ -3376,25 +4161,25 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" t="s">
         <v>84</v>
       </c>
-      <c r="C103" t="s">
-        <v>85</v>
-      </c>
       <c r="D103" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D104" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E104" t="s">
         <v>51</v>
@@ -3403,145 +4188,145 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D106" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" t="s">
         <v>80</v>
       </c>
-      <c r="C107" t="s">
-        <v>81</v>
-      </c>
       <c r="D107" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D108" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C109" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C110" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D111" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D112" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C114" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D114" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F115" s="1"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D116" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E116" t="s">
         <v>51</v>
@@ -3550,169 +4335,169 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D117" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C118" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D118" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F118" s="1"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C120" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D120" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D121" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F121" s="1"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D122" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C123" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D123" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C124" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D124" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C125" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D125" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F125" s="1"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C126" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D126" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>186</v>
+        <v>451</v>
       </c>
       <c r="C127" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D127" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D128" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F128" s="1"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D129" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D130" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E130" t="s">
         <v>51</v>
@@ -3721,61 +4506,61 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C131" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D131" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C132" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C133" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D133" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C134" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D134" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E135" t="s">
         <v>51</v>
@@ -3784,49 +4569,49 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C136" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D136" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C137" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D138" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F138" s="1"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C139" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D139" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F139" s="1"/>
     </row>
@@ -3835,169 +4620,169 @@
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D141" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F141" s="1"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D142" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F142" s="1"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D143" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C144" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D144" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D145" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F145" s="1"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C146" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D146" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C147" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D147" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C148" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D148" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C149" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D149" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C150" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D150" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C151" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D151" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C152" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D152" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C153" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D153" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D154" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E154" t="s">
         <v>51</v>
@@ -4006,37 +4791,37 @@
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C155" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D155" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C156" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D156" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C157" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D157" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F157" s="1"/>
     </row>
@@ -4045,301 +4830,301 @@
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C159" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D159" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D160" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F160" s="1"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C161" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D161" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F161" s="1"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C162" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D162" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F162" s="1"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C163" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D163" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C164" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D164" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C165" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D165" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C166" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D166" t="s">
-        <v>249</v>
+        <v>438</v>
       </c>
       <c r="F166" s="1"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C167" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D167" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C168" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D168" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C169" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D169" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C170" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D170" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C171" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D171" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C172" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D172" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C173" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D173" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C174" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D174" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C175" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D175" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C176" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D176" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C177" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D177" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C178" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D178" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C179" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D179" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F179" s="1"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C180" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D180" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F180" s="1"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C181" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D181" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F181" s="1"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D182" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C183" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D183" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F183" s="1"/>
     </row>
@@ -4351,301 +5136,301 @@
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186" t="s">
         <v>84</v>
       </c>
-      <c r="C186" t="s">
-        <v>85</v>
-      </c>
       <c r="D186" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F186" s="1"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D187" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F187" s="1"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D188" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F188" s="1"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C189" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D189" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F189" s="1"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C190" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D190" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F190" s="1"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D191" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F191" s="1"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D192" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C193" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D193" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D194" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F194" s="1"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C195" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D195" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F195" s="1"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C196" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D196" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F196" s="1"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C197" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D197" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F197" s="1"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C198" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D198" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F198" s="1"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C199" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D199" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F199" s="1"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C200" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D200" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F200" s="1"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C201" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D201" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F201" s="1"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C202" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D202" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F202" s="1"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D203" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D204" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C205" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D205" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F205" s="1"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C206" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D206" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F206" s="1"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D207" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>342</v>
+        <v>462</v>
       </c>
       <c r="D208" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F208" s="1"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C209" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D209" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F209" s="1"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C210" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D210" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F210" s="1"/>
     </row>
@@ -4657,193 +5442,193 @@
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
+        <v>83</v>
+      </c>
+      <c r="C213" t="s">
         <v>84</v>
       </c>
-      <c r="C213" t="s">
-        <v>85</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C214" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D214" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F214" s="1"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C215" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D215" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C216" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D216" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C217" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D217" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C218" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D218" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C219" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D219" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F219" s="1"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C220" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D220" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C221" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D221" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F221" s="1"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C222" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D222" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C223" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D223" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F223" s="1"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C224" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D224" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F224" s="1"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C225" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D225" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C226" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D226" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C227" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D227" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C228" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D228" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F228" s="1"/>
     </row>
@@ -4852,325 +5637,328 @@
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C230" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F230" s="1"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
+        <v>83</v>
+      </c>
+      <c r="C231" t="s">
         <v>84</v>
       </c>
-      <c r="C231" t="s">
-        <v>85</v>
-      </c>
       <c r="D231" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B232" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C232" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D232" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C233" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D233" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C234" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D234" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F234" s="1"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C235" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D235" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C236" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D236" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C237" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D237" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F237" s="1"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C238" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D238" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F238" s="1"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C239" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D239" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F239" s="1"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
+        <v>389</v>
+      </c>
+      <c r="C240" t="s">
+        <v>390</v>
+      </c>
+      <c r="D240" t="s">
+        <v>372</v>
+      </c>
+      <c r="F240" s="1"/>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>391</v>
+      </c>
+      <c r="C241" t="s">
+        <v>392</v>
+      </c>
+      <c r="D241" t="s">
+        <v>372</v>
+      </c>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B242" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C242" t="s">
         <v>394</v>
       </c>
-      <c r="D240" t="s">
-        <v>376</v>
-      </c>
-      <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B241" t="s">
+      <c r="D242" t="s">
+        <v>372</v>
+      </c>
+      <c r="F242" s="1"/>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
         <v>395</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C243" t="s">
         <v>396</v>
       </c>
-      <c r="D241" t="s">
-        <v>376</v>
-      </c>
-      <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B242" s="3" t="s">
+      <c r="D243" t="s">
+        <v>372</v>
+      </c>
+      <c r="F243" s="1"/>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
         <v>397</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C244" t="s">
         <v>398</v>
       </c>
-      <c r="D242" t="s">
-        <v>376</v>
-      </c>
-      <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B243" t="s">
+      <c r="D244" t="s">
+        <v>372</v>
+      </c>
+      <c r="F244" s="1"/>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
         <v>399</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C245" t="s">
         <v>400</v>
       </c>
-      <c r="D243" t="s">
-        <v>376</v>
-      </c>
-      <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B244" t="s">
+      <c r="D245" t="s">
+        <v>372</v>
+      </c>
+      <c r="F245" s="1"/>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
         <v>401</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C246" t="s">
         <v>402</v>
       </c>
-      <c r="D244" t="s">
-        <v>376</v>
-      </c>
-      <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B245" t="s">
+      <c r="D246" t="s">
+        <v>372</v>
+      </c>
+      <c r="F246" s="1"/>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
         <v>403</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C247" t="s">
         <v>404</v>
       </c>
-      <c r="D245" t="s">
-        <v>376</v>
-      </c>
-      <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B246" t="s">
+      <c r="D247" t="s">
+        <v>372</v>
+      </c>
+      <c r="F247" s="1"/>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
         <v>405</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C248" t="s">
         <v>406</v>
       </c>
-      <c r="D246" t="s">
-        <v>376</v>
-      </c>
-      <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B247" t="s">
+      <c r="D248" t="s">
+        <v>372</v>
+      </c>
+      <c r="F248" s="1"/>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
         <v>407</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C249" t="s">
         <v>408</v>
       </c>
-      <c r="D247" t="s">
-        <v>376</v>
-      </c>
-      <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B248" t="s">
+      <c r="D249" t="s">
+        <v>372</v>
+      </c>
+      <c r="F249" s="1"/>
+      <c r="H249" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
         <v>409</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C250" t="s">
         <v>410</v>
       </c>
-      <c r="D248" t="s">
-        <v>376</v>
-      </c>
-      <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B249" t="s">
+      <c r="D250" t="s">
+        <v>372</v>
+      </c>
+      <c r="F250" s="1"/>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B251" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C251" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D249" t="s">
-        <v>376</v>
-      </c>
-      <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B250" t="s">
+      <c r="D251" t="s">
+        <v>372</v>
+      </c>
+      <c r="F251" s="1"/>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>236</v>
+      </c>
+      <c r="C252" t="s">
         <v>413</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D252" t="s">
+        <v>372</v>
+      </c>
+      <c r="F252" s="1"/>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>238</v>
+      </c>
+      <c r="C253" t="s">
         <v>414</v>
       </c>
-      <c r="D250" t="s">
-        <v>376</v>
-      </c>
-      <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B251" s="3" t="s">
+      <c r="D253" t="s">
+        <v>372</v>
+      </c>
+      <c r="F253" s="1"/>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
         <v>415</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C254" t="s">
         <v>416</v>
       </c>
-      <c r="D251" t="s">
-        <v>376</v>
-      </c>
-      <c r="F251" s="1"/>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B252" t="s">
-        <v>239</v>
-      </c>
-      <c r="C252" t="s">
+      <c r="D254" t="s">
+        <v>372</v>
+      </c>
+      <c r="F254" s="1"/>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>242</v>
+      </c>
+      <c r="C255" t="s">
         <v>417</v>
       </c>
-      <c r="D252" t="s">
-        <v>376</v>
-      </c>
-      <c r="F252" s="1"/>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B253" t="s">
-        <v>241</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="D255" t="s">
+        <v>372</v>
+      </c>
+      <c r="F255" s="1"/>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
         <v>418</v>
       </c>
-      <c r="D253" t="s">
-        <v>376</v>
-      </c>
-      <c r="F253" s="1"/>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B254" t="s">
+      <c r="C256" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C254" t="s">
-        <v>420</v>
-      </c>
-      <c r="D254" t="s">
-        <v>376</v>
-      </c>
-      <c r="F254" s="1"/>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B255" t="s">
-        <v>245</v>
-      </c>
-      <c r="C255" t="s">
-        <v>421</v>
-      </c>
-      <c r="D255" t="s">
-        <v>376</v>
-      </c>
-      <c r="F255" s="1"/>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B256" t="s">
-        <v>422</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>423</v>
-      </c>
       <c r="D256" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F256" s="1"/>
     </row>
